--- a/May After Eid.xlsx
+++ b/May After Eid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Supty</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">singara </t>
+  </si>
+  <si>
+    <t>Joy Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2021 Bazar </t>
   </si>
 </sst>
 </file>
@@ -388,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,12 +405,12 @@
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +420,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -426,16 +435,26 @@
         <f>SUM(B2:B159)</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>SUM(E3:E56)</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -443,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -451,7 +470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -459,7 +478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -467,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -475,7 +494,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>

--- a/May After Eid.xlsx
+++ b/May After Eid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Supty</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t xml:space="preserve">5/23/2021 Bazar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pepe gazor </t>
+  </si>
+  <si>
+    <t>chal</t>
+  </si>
+  <si>
+    <t>dim</t>
   </si>
 </sst>
 </file>
@@ -394,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +442,7 @@
       </c>
       <c r="C2">
         <f>SUM(B2:B159)</f>
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="F2">
         <f>SUM(E3:E56)</f>
@@ -500,6 +509,30 @@
       </c>
       <c r="B9">
         <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/May After Eid.xlsx
+++ b/May After Eid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Supty</t>
   </si>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
       </c>
       <c r="C2">
         <f>SUM(B2:B159)</f>
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="F2">
         <f>SUM(E3:E56)</f>
@@ -533,6 +533,14 @@
       </c>
       <c r="B12">
         <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
